--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Regtrack-Project\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,12 +45,11 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="238">
   <si>
     <t>URL</t>
   </si>
@@ -799,23 +803,20 @@
     <t>mayurigaikwad0307@gmail.com</t>
   </si>
   <si>
-    <t>bhagyesh@tlregtech.com</t>
-  </si>
-  <si>
-    <t>Avantis@123</t>
-  </si>
-  <si>
     <t>admin#123</t>
   </si>
   <si>
     <t>snehal.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>deepalidev1973@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1102,11 @@
       <color rgb="FF202124"/>
       <name val="Google Sans"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1158,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1240,6 +1246,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1713,7 +1720,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1735,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>
@@ -1746,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3668,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3690,25 +3697,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3868,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3903,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -4038,7 +4043,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
@@ -4081,8 +4086,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="60" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4121,13 +4126,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4136,7 +4140,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4166,7 +4170,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4196,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4227,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Regtrack-Project\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="2"/>
   </bookViews>
@@ -45,11 +40,12 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
   <si>
     <t>URL</t>
   </si>
@@ -810,6 +806,9 @@
   </si>
   <si>
     <t>deepalidev1973@gmail.com</t>
+  </si>
+  <si>
+    <t>Team@123</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1247,6 +1246,9 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3676,7 +3678,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3705,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4059,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4086,8 +4088,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>235</v>
+      <c r="B3" s="62" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4129,9 +4131,10 @@
     <hyperlink ref="B6" r:id="rId2"/>
     <hyperlink ref="B13" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Regtrack-Project\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +45,6 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
@@ -796,9 +800,6 @@
     <t>deepali23@tlregtech.in</t>
   </si>
   <si>
-    <t>mayurigaikwad0307@gmail.com</t>
-  </si>
-  <si>
     <t>admin#123</t>
   </si>
   <si>
@@ -809,6 +810,9 @@
   </si>
   <si>
     <t>Team@123</t>
+  </si>
+  <si>
+    <t>shital.bhoyar@tlregtech.in</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>
@@ -3677,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3707,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -4089,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4143,7 +4147,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4173,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4203,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4226,7 +4230,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4234,7 +4238,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4276,7 +4280,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B10" r:id="rId5"/>
